--- a/Document/몬스터_오브젝트 스캔 기능_강일구.xlsx
+++ b/Document/몬스터_오브젝트 스캔 기능_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,179 +65,186 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 긴장감을 조성 할 수 있는 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 몬스터 외형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">랜덤 이동 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의의 구역을 우선순위를 통해 선정하여 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오브젝트 스캔 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간이 지나면 구역 내 오브젝트를 스캔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 발견 후 일정 범위네 유저가 존재하면 공격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위압감을 줄 수 있는 형태의 몬스터 아이디어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 랜덤 이동 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  오브젝트 스캔 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터는 이동 중 범위내 오브젝트(캐비닛 형태)가 있을 경우 오브젝트 앞에 정지 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트(캐비닛 형태)를 탐색한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨기 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 범위 내에서 숨기 형태의 오브젝트를 사용 할 경우 사용을 불가능 하게 만듬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 구현 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 문서에 나와 있는 변수명은 프로그래머가 임의로 변경해도 상관없습니다. 이해를 돕기 위한 용어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터는 3개의 스캔 카운터를 가지고 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 3개 이상의 스캔 카운터를 보유 할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔 카운터는 3개 미만으로 떨어졌을 경우 충전을 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔 카운터를 소비한 뒤 5초 후 스캔 카운터가 1 증가 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트(캐비닛 형태)내부에 플레이어가 존재 할 경우 플레이어를 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탐색을 실행 한 후 스캔 카운터를 1 감소 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔 쿨타임이 0이고 스캔 카운터가 존재 할 시 스캔을 동작을 실행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탐색을 실행 한 후 스캔 쿨타임을 15초로 증가 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 오브젝트 스캔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔 범위는 몬스터를 기준으로 원형으로 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔 범위 값을 기획자가 조절할 수 있으면 좋겠습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 부분은 유저에게 표기 하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 쿨타임이 0일 때 스캔을 실행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스캔을 종료한 시점 부터 15초 이후 스캔 카운터를 0으로 만든다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 내용은 유저에게 표기 하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.1 스캔 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.2 스캔 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.3 스캔 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.4 스캔 카운터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 스킬로 의도 변경 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - 오브젝트 내에 숨어 있는 유저를 찾아 내는 형태의 몬스터 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 긴장감을 조성 할 수 있는 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이미지 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 몬스터 외형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">랜덤 이동 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>임의의 구역을 우선순위를 통해 선정하여 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">오브젝트 스캔 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간이 지나면 구역 내 오브젝트를 스캔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 발견 후 일정 범위네 유저가 존재하면 공격 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">위압감을 줄 수 있는 형태의 몬스터 아이디어 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 랜덤 이동 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.  오브젝트 스캔 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터는 이동 중 범위내 오브젝트(캐비닛 형태)가 있을 경우 오브젝트 앞에 정지 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오브젝트(캐비닛 형태)를 탐색한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숨기 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 범위 내에서 숨기 형태의 오브젝트를 사용 할 경우 사용을 불가능 하게 만듬 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 구현 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 문서에 나와 있는 변수명은 프로그래머가 임의로 변경해도 상관없습니다. 이해를 돕기 위한 용어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터는 3개의 스캔 카운터를 가지고 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 3개 이상의 스캔 카운터를 보유 할 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔 카운터는 3개 미만으로 떨어졌을 경우 충전을 시작한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔 카운터를 소비한 뒤 5초 후 스캔 카운터가 1 증가 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 오브젝트(캐비닛 형태)내부에 플레이어가 존재 할 경우 플레이어를 공격한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탐색을 실행 한 후 스캔 카운터를 1 감소 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔 쿨타임이 0이고 스캔 카운터가 존재 할 시 스캔을 동작을 실행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탐색을 실행 한 후 스캔 쿨타임을 15초로 증가 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 오브젝트 스캔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔 범위는 몬스터를 기준으로 원형으로 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔 범위 값을 기획자가 조절할 수 있으면 좋겠습니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 부분은 유저에게 표기 하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 쿨타임이 0일 때 스캔을 실행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스캔을 종료한 시점 부터 15초 이후 스캔 카운터를 0으로 만든다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 내용은 유저에게 표기 하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.1 스캔 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.2 스캔 쿨타임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.3 스캔 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.4 스캔 카운터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 기본적인 몬스터의 추적 룰에 따르나 이동의 룰이 다르다.</t>
+    <t xml:space="preserve"> - 기본적인 몬스터와 동일하며 스킬이 추가 되어 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,14 +362,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,15 +753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -779,6 +790,18 @@
         <v>6</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -790,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,307 +835,307 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:G37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C16:K16"/>
-    <mergeCell ref="B22:G37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1130,118 +1153,118 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1263,12 +1286,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
